--- a/Data Appendix/CH_Hazard_Scoring.xlsx
+++ b/Data Appendix/CH_Hazard_Scoring.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Honours\Data Appendix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Honours\Data Appendix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{030D23A7-4FD6-4183-B589-66DF41C8217E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613B7D31-2787-43D0-B311-74209D39C33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27150" yWindow="-16380" windowWidth="29040" windowHeight="15720" xr2:uid="{BE39197E-AE55-4011-B515-5F29F14891C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BE39197E-AE55-4011-B515-5F29F14891C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="3" r:id="rId1"/>
     <sheet name="CH_Hazard_Scoring" sheetId="1" r:id="rId2"/>
     <sheet name="Bibliography" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CH_Hazard_Scoring!$A$1:$Y$224</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="500">
   <si>
     <t>SUB_PROVINCE</t>
   </si>
@@ -2059,12 +2062,104 @@
   <si>
     <t xml:space="preserve">Wohlt, K. E., Taylor, D. H., Simons, B. A., &amp; Magart, A. P. M. (2000). Maryborough [Geological Map]. </t>
   </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Sheet overview:</t>
+  </si>
+  <si>
+    <t>How to use:</t>
+  </si>
+  <si>
+    <t>Last updated:</t>
+  </si>
+  <si>
+    <t>Author Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: </t>
+  </si>
+  <si>
+    <t>Holly Rose Taylor</t>
+  </si>
+  <si>
+    <t>Email:</t>
+  </si>
+  <si>
+    <t>hrtaylor2003@gmail.com</t>
+  </si>
+  <si>
+    <t>ORCID:</t>
+  </si>
+  <si>
+    <t>0009-0005-8162-5946</t>
+  </si>
+  <si>
+    <t>Github:</t>
+  </si>
+  <si>
+    <t>https://github.com/missholphin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sheet 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Full list of eruptive centres in the Central Highlands with their information and hazard profile scores as outlined in index                                                                                                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sheet 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Bibliography with references used to assess data completeness and hazard potential, in APA 7th format and alphabetised by author then title.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sheet 2 can be exported in Comma Delimited Value (.csv) format and read into Python using the Pandas Library (https://pandas.pydata.org/), as shown in the Hazard Scoring and Mapping code on Github.</t>
+  </si>
+  <si>
+    <t>This is the hazard profile scoring sheet for the eruptive centres in the Central Highlands subprovince of SE Australia's Newer Volcanics Province. For each centre it includes a persistent identifier (Centre Name), location, and the proxy indicators used to assess hazard potential. The use of proxy data enables the assessment of volcanoes where direct observational or instrumental records are incomplete, and centres can then be prioritised for further monitoring and study.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2267,8 +2362,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2454,8 +2555,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2589,23 +2702,30 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2617,7 +2737,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2627,31 +2747,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -2704,29 +2802,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="11" xfId="31" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="13" xfId="31" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="10" xfId="40" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2739,11 +2821,75 @@
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="28" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="11" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="13" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="23" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="23" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="14" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="15" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3121,236 +3267,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5130CB46-1631-441C-B066-5F119718A196}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="76" customWidth="1"/>
-    <col min="5" max="5" width="43.109375" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="C4" s="18"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5" s="20">
+        <v>45933</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A7" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="C8" s="22"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.4">
+      <c r="A13" s="30" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="B13" s="30"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B15" s="32" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="C15" s="32"/>
+    </row>
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B16" s="34" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B17" s="35" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="C17" s="35"/>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B18" s="34" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B19" s="35" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="C19" s="35"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B20" s="35" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="C20" s="35"/>
+    </row>
+    <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B21" s="34" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="C21" s="34"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B22" s="34" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="C22" s="34"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B23" s="34" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="C23" s="34"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B24" s="34" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="C24" s="34"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B25" s="34" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="C25" s="34"/>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B26" s="34" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="C26" s="34"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B27" s="36" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="C27" s="36"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B28" s="34" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="C28" s="34"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B29" s="34" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="C29" s="34"/>
+    </row>
+    <row r="30" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B30" s="34" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="C30" s="34"/>
+    </row>
+    <row r="31" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B31" s="34" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="C31" s="34"/>
+    </row>
+    <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
         <v>357</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B32" s="34" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="C32" s="34"/>
+    </row>
+    <row r="33" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B33" s="34" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="C33" s="34"/>
+    </row>
+    <row r="34" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B34" s="34" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="C34" s="34"/>
+    </row>
+    <row r="35" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B35" s="34" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="C35" s="34"/>
+    </row>
+    <row r="36" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B36" s="34" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="C36" s="34"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B37" s="34" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="C37" s="34"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B38" s="34" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="C38" s="34"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B39" s="34" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="C39" s="34"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B40" s="36" t="s">
         <v>346</v>
       </c>
+      <c r="C40" s="36"/>
     </row>
   </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B28" location="Bibliography!A1" display="Number of reference available in Bibliography" xr:uid="{98E2F0E2-B32A-4040-9DF0-8E9D18DBB933}"/>
+    <hyperlink ref="B40" location="Bibliography!A1" display="Number of reference available in Bibliography" xr:uid="{98E2F0E2-B32A-4040-9DF0-8E9D18DBB933}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3361,93 +3665,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006B8963-F2B8-4E4A-8057-453E359A0D21}">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="25" max="25" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3521,7 +3825,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -3586,7 +3890,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3651,7 +3955,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3719,7 +4023,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -3787,7 +4091,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3858,7 +4162,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3923,7 +4227,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3994,7 +4298,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -4059,7 +4363,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -4127,7 +4431,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4195,7 +4499,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4263,7 +4567,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4331,7 +4635,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -4405,7 +4709,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -4470,7 +4774,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -4538,7 +4842,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -4606,7 +4910,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4674,7 +4978,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -4742,7 +5046,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -4813,7 +5117,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -4881,7 +5185,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4952,7 +5256,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -5017,7 +5321,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -5085,7 +5389,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -5156,7 +5460,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -5221,7 +5525,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -5286,7 +5590,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -5354,7 +5658,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -5425,7 +5729,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -5493,7 +5797,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -5561,7 +5865,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -5629,7 +5933,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -5697,7 +6001,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -5768,7 +6072,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -5836,7 +6140,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -5904,7 +6208,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -5975,7 +6279,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -6040,7 +6344,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -6108,7 +6412,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -6179,7 +6483,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -6247,7 +6551,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -6312,7 +6616,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -6380,7 +6684,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -6445,7 +6749,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -6513,7 +6817,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -6581,7 +6885,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -6649,7 +6953,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -6714,7 +7018,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -6782,7 +7086,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -6850,7 +7154,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -6918,7 +7222,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -6986,7 +7290,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -7057,7 +7361,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>22</v>
       </c>
@@ -7125,7 +7429,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>22</v>
       </c>
@@ -7193,7 +7497,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>22</v>
       </c>
@@ -7261,7 +7565,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -7332,7 +7636,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -7400,7 +7704,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -7468,7 +7772,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -7536,7 +7840,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -7604,7 +7908,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>22</v>
       </c>
@@ -7672,7 +7976,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>22</v>
       </c>
@@ -7740,7 +8044,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>22</v>
       </c>
@@ -7808,7 +8112,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -7873,7 +8177,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -7938,7 +8242,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>22</v>
       </c>
@@ -8003,7 +8307,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>22</v>
       </c>
@@ -8068,7 +8372,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>22</v>
       </c>
@@ -8136,7 +8440,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>22</v>
       </c>
@@ -8204,7 +8508,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>22</v>
       </c>
@@ -8272,7 +8576,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -8340,7 +8644,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -8408,7 +8712,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -8476,7 +8780,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>22</v>
       </c>
@@ -8544,7 +8848,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -8612,7 +8916,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -8680,7 +8984,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -8745,7 +9049,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -8813,7 +9117,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -8881,7 +9185,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -8949,7 +9253,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -9020,7 +9324,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -9091,7 +9395,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -9159,7 +9463,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -9227,7 +9531,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -9298,7 +9602,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -9366,7 +9670,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -9434,7 +9738,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -9502,7 +9806,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -9570,7 +9874,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -9638,7 +9942,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -9706,7 +10010,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -9777,7 +10081,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -9845,7 +10149,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -9913,7 +10217,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -9981,7 +10285,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -10046,7 +10350,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -10114,7 +10418,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>22</v>
       </c>
@@ -10182,7 +10486,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>22</v>
       </c>
@@ -10253,7 +10557,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -10321,7 +10625,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>22</v>
       </c>
@@ -10389,7 +10693,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>22</v>
       </c>
@@ -10457,7 +10761,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -10525,7 +10829,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -10593,7 +10897,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -10658,7 +10962,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>22</v>
       </c>
@@ -10722,11 +11026,11 @@
       <c r="X108" t="b">
         <v>0</v>
       </c>
-      <c r="Y108" s="16" t="s">
+      <c r="Y108" s="6" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -10791,7 +11095,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>22</v>
       </c>
@@ -10859,7 +11163,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -10927,7 +11231,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>22</v>
       </c>
@@ -10995,7 +11299,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>22</v>
       </c>
@@ -11066,7 +11370,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>22</v>
       </c>
@@ -11137,7 +11441,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -11208,7 +11512,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -11276,7 +11580,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>22</v>
       </c>
@@ -11344,7 +11648,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>22</v>
       </c>
@@ -11409,7 +11713,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>22</v>
       </c>
@@ -11480,7 +11784,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -11545,7 +11849,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>22</v>
       </c>
@@ -11616,7 +11920,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -11681,7 +11985,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -11749,7 +12053,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>22</v>
       </c>
@@ -11817,7 +12121,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>22</v>
       </c>
@@ -11882,7 +12186,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>22</v>
       </c>
@@ -11950,7 +12254,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>22</v>
       </c>
@@ -12018,7 +12322,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>22</v>
       </c>
@@ -12083,7 +12387,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>22</v>
       </c>
@@ -12151,7 +12455,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -12219,7 +12523,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -12290,7 +12594,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>22</v>
       </c>
@@ -12361,7 +12665,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -12429,7 +12733,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>22</v>
       </c>
@@ -12494,7 +12798,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>22</v>
       </c>
@@ -12562,7 +12866,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>22</v>
       </c>
@@ -12630,7 +12934,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>22</v>
       </c>
@@ -12695,7 +12999,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>22</v>
       </c>
@@ -12766,7 +13070,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>22</v>
       </c>
@@ -12837,7 +13141,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>22</v>
       </c>
@@ -12902,7 +13206,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>22</v>
       </c>
@@ -12973,7 +13277,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -13041,7 +13345,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -13109,7 +13413,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>22</v>
       </c>
@@ -13180,7 +13484,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>22</v>
       </c>
@@ -13248,7 +13552,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>22</v>
       </c>
@@ -13313,7 +13617,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>22</v>
       </c>
@@ -13381,7 +13685,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>22</v>
       </c>
@@ -13449,7 +13753,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>22</v>
       </c>
@@ -13517,7 +13821,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>22</v>
       </c>
@@ -13588,7 +13892,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>22</v>
       </c>
@@ -13656,7 +13960,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>22</v>
       </c>
@@ -13724,7 +14028,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>22</v>
       </c>
@@ -13792,7 +14096,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>22</v>
       </c>
@@ -13863,7 +14167,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>22</v>
       </c>
@@ -13934,7 +14238,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>22</v>
       </c>
@@ -14002,7 +14306,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>22</v>
       </c>
@@ -14070,7 +14374,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>22</v>
       </c>
@@ -14138,7 +14442,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>22</v>
       </c>
@@ -14209,7 +14513,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>22</v>
       </c>
@@ -14277,7 +14581,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>22</v>
       </c>
@@ -14345,7 +14649,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>22</v>
       </c>
@@ -14413,7 +14717,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>22</v>
       </c>
@@ -14481,7 +14785,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>22</v>
       </c>
@@ -14552,7 +14856,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>22</v>
       </c>
@@ -14620,7 +14924,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>22</v>
       </c>
@@ -14688,7 +14992,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>22</v>
       </c>
@@ -14756,7 +15060,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>22</v>
       </c>
@@ -14824,7 +15128,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -14895,7 +15199,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>22</v>
       </c>
@@ -14963,7 +15267,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>22</v>
       </c>
@@ -15031,7 +15335,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>22</v>
       </c>
@@ -15096,7 +15400,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>22</v>
       </c>
@@ -15164,7 +15468,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -15229,7 +15533,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>22</v>
       </c>
@@ -15297,7 +15601,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>22</v>
       </c>
@@ -15362,7 +15666,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>22</v>
       </c>
@@ -15427,7 +15731,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>22</v>
       </c>
@@ -15495,7 +15799,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>22</v>
       </c>
@@ -15560,7 +15864,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>22</v>
       </c>
@@ -15625,7 +15929,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>22</v>
       </c>
@@ -15693,7 +15997,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>22</v>
       </c>
@@ -15761,7 +16065,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>22</v>
       </c>
@@ -15826,7 +16130,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>22</v>
       </c>
@@ -15894,7 +16198,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>22</v>
       </c>
@@ -15965,7 +16269,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>22</v>
       </c>
@@ -16036,7 +16340,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>22</v>
       </c>
@@ -16107,7 +16411,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>22</v>
       </c>
@@ -16175,7 +16479,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>22</v>
       </c>
@@ -16243,7 +16547,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>22</v>
       </c>
@@ -16308,7 +16612,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>22</v>
       </c>
@@ -16376,7 +16680,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>22</v>
       </c>
@@ -16441,7 +16745,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>22</v>
       </c>
@@ -16509,7 +16813,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>22</v>
       </c>
@@ -16574,7 +16878,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>22</v>
       </c>
@@ -16645,7 +16949,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>22</v>
       </c>
@@ -16710,7 +17014,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -16778,7 +17082,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -16846,7 +17150,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -16911,7 +17215,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -16979,7 +17283,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -17044,7 +17348,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -17112,7 +17416,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>22</v>
       </c>
@@ -17180,7 +17484,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -17248,7 +17552,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -17316,7 +17620,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -17384,7 +17688,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -17452,7 +17756,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>22</v>
       </c>
@@ -17520,7 +17824,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>22</v>
       </c>
@@ -17588,7 +17892,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>22</v>
       </c>
@@ -17656,7 +17960,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>22</v>
       </c>
@@ -17724,7 +18028,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>22</v>
       </c>
@@ -17792,7 +18096,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>22</v>
       </c>
@@ -17857,7 +18161,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>22</v>
       </c>
@@ -17922,7 +18226,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>22</v>
       </c>
@@ -17987,7 +18291,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>22</v>
       </c>
@@ -18052,7 +18356,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>22</v>
       </c>
@@ -18120,7 +18424,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>22</v>
       </c>
@@ -18188,7 +18492,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>22</v>
       </c>
@@ -18256,7 +18560,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -18321,7 +18625,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>22</v>
       </c>
@@ -18386,7 +18690,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>22</v>
       </c>
@@ -18451,7 +18755,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>22</v>
       </c>
@@ -18519,7 +18823,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>22</v>
       </c>
@@ -18585,6 +18889,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Y224" xr:uid="{006B8963-F2B8-4E4A-8057-453E359A0D21}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18594,388 +18899,388 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="136" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="136" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="18"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="2" spans="1:2" ht="28.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="9" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>15</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>16</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>17</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>19</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>20</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>21</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
-        <v>22</v>
-      </c>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>24</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
+    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <v>25</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>26</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>27</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>28</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>29</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>30</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>31</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="3" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>32</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
         <v>33</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="22">
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <v>34</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="22">
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
         <v>35</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
+    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
         <v>36</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
         <v>37</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="22">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
         <v>38</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
+    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <v>39</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
         <v>40</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="22">
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
         <v>41</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="22">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
         <v>42</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="22">
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
         <v>43</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
         <v>44</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
         <v>45</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="3" t="s">
         <v>482</v>
       </c>
     </row>
